--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H2">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>0.5508507685706666</v>
+        <v>0.9759273196972222</v>
       </c>
       <c r="R2">
-        <v>4.957656917135999</v>
+        <v>8.783345877275</v>
       </c>
       <c r="S2">
-        <v>0.01282930011411939</v>
+        <v>0.01641939206717209</v>
       </c>
       <c r="T2">
-        <v>0.01282930011411939</v>
+        <v>0.01641939206717208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H3">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>2.911179016122666</v>
+        <v>3.644501195214889</v>
       </c>
       <c r="R3">
-        <v>26.200611145104</v>
+        <v>32.800510756934</v>
       </c>
       <c r="S3">
-        <v>0.06780128378630593</v>
+        <v>0.06131654766266387</v>
       </c>
       <c r="T3">
-        <v>0.06780128378630593</v>
+        <v>0.06131654766266385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.3074763333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.9224289999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.1203396906281759</v>
+      </c>
+      <c r="J4">
+        <v>0.1203396906281759</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.245608</v>
-      </c>
-      <c r="H4">
-        <v>0.7368239999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.1506672452144055</v>
-      </c>
-      <c r="J4">
-        <v>0.1506672452144055</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>0.7515630998186666</v>
+        <v>0.1466801499271111</v>
       </c>
       <c r="R4">
-        <v>6.764067898367999</v>
+        <v>1.320121349344</v>
       </c>
       <c r="S4">
-        <v>0.01750388510356522</v>
+        <v>0.002467805585022475</v>
       </c>
       <c r="T4">
-        <v>0.01750388510356522</v>
+        <v>0.002467805585022475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H5">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I5">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J5">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>1.639409903501333</v>
+        <v>2.237240130575222</v>
       </c>
       <c r="R5">
-        <v>14.754689131512</v>
+        <v>20.135161175177</v>
       </c>
       <c r="S5">
-        <v>0.03818181413570983</v>
+        <v>0.0376402239295058</v>
       </c>
       <c r="T5">
-        <v>0.03818181413570983</v>
+        <v>0.0376402239295058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3074763333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.9224289999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.1203396906281759</v>
+      </c>
+      <c r="J6">
+        <v>0.1203396906281759</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.245608</v>
-      </c>
-      <c r="H6">
-        <v>0.7368239999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.1506672452144055</v>
-      </c>
-      <c r="J6">
-        <v>0.1506672452144055</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>0.61618626256</v>
+        <v>0.1483393947138889</v>
       </c>
       <c r="R6">
-        <v>5.545676363039999</v>
+        <v>1.335054552425</v>
       </c>
       <c r="S6">
-        <v>0.01435096207470512</v>
+        <v>0.002495721383811639</v>
       </c>
       <c r="T6">
-        <v>0.01435096207470512</v>
+        <v>0.002495721383811639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I7">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J7">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>0.7430426812697779</v>
+        <v>1.051545555161111</v>
       </c>
       <c r="R7">
-        <v>6.687384131428001</v>
+        <v>9.463909996450003</v>
       </c>
       <c r="S7">
-        <v>0.0173054447765321</v>
+        <v>0.01769162354430148</v>
       </c>
       <c r="T7">
-        <v>0.0173054447765321</v>
+        <v>0.01769162354430148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I8">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J8">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>3.926889795232445</v>
@@ -948,10 +948,10 @@
         <v>35.342008157092</v>
       </c>
       <c r="S8">
-        <v>0.09145716149009403</v>
+        <v>0.06606756656069676</v>
       </c>
       <c r="T8">
-        <v>0.09145716149009403</v>
+        <v>0.06606756656069673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I9">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J9">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>1.013783573873778</v>
+        <v>0.1580454369635556</v>
       </c>
       <c r="R9">
-        <v>9.124052164864001</v>
+        <v>1.422408932672</v>
       </c>
       <c r="S9">
-        <v>0.02361099314382224</v>
+        <v>0.002659019725707896</v>
       </c>
       <c r="T9">
-        <v>0.02361099314382224</v>
+        <v>0.002659019725707895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I10">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J10">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>2.211400255569556</v>
+        <v>2.410589259725112</v>
       </c>
       <c r="R10">
-        <v>19.902602300126</v>
+        <v>21.695303337526</v>
       </c>
       <c r="S10">
-        <v>0.05150345460124844</v>
+        <v>0.04055671910139824</v>
       </c>
       <c r="T10">
-        <v>0.05150345460124844</v>
+        <v>0.04055671910139824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I11">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J11">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>0.8311737385466668</v>
+        <v>0.1598332457944444</v>
       </c>
       <c r="R11">
-        <v>7.48056364692</v>
+        <v>1.43849921215</v>
       </c>
       <c r="S11">
-        <v>0.01935801481489959</v>
+        <v>0.002689098537462673</v>
       </c>
       <c r="T11">
-        <v>0.01935801481489959</v>
+        <v>0.002689098537462673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H12">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I12">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J12">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>0.7883652779737779</v>
+        <v>1.525430974972222</v>
       </c>
       <c r="R12">
-        <v>7.095287501764</v>
+        <v>13.72887877475</v>
       </c>
       <c r="S12">
-        <v>0.01836100687836154</v>
+        <v>0.02566446162942556</v>
       </c>
       <c r="T12">
-        <v>0.01836100687836154</v>
+        <v>0.02566446162942555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H13">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I13">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J13">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>4.166414181888445</v>
+        <v>5.696566639028889</v>
       </c>
       <c r="R13">
-        <v>37.497727636996</v>
+        <v>51.26909975126</v>
       </c>
       <c r="S13">
-        <v>0.09703567824343134</v>
+        <v>0.09584131850311016</v>
       </c>
       <c r="T13">
-        <v>0.09703567824343134</v>
+        <v>0.09584131850311012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H14">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I14">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J14">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>1.075620269425778</v>
+        <v>0.2292695773511111</v>
       </c>
       <c r="R14">
-        <v>9.680582424832002</v>
+        <v>2.06342619616</v>
       </c>
       <c r="S14">
-        <v>0.02505116817954113</v>
+        <v>0.003857323187520401</v>
       </c>
       <c r="T14">
-        <v>0.02505116817954113</v>
+        <v>0.0038573231875204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H15">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I15">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J15">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>2.346286722337556</v>
+        <v>3.496936016392222</v>
       </c>
       <c r="R15">
-        <v>21.116580501038</v>
+        <v>31.47242414753</v>
       </c>
       <c r="S15">
-        <v>0.05464495691409829</v>
+        <v>0.0588338519970651</v>
       </c>
       <c r="T15">
-        <v>0.05464495691409829</v>
+        <v>0.05883385199706508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H16">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I16">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J16">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>0.8818719731066668</v>
+        <v>0.2318630731388888</v>
       </c>
       <c r="R16">
-        <v>7.936847757960001</v>
+        <v>2.08676765825</v>
       </c>
       <c r="S16">
-        <v>0.02053877538298223</v>
+        <v>0.00390095719930039</v>
       </c>
       <c r="T16">
-        <v>0.02053877538298223</v>
+        <v>0.00390095719930039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H17">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I17">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J17">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>0.3881726700817779</v>
+        <v>0.7148971870333335</v>
       </c>
       <c r="R17">
-        <v>3.493554030736</v>
+        <v>6.434074683300001</v>
       </c>
       <c r="S17">
-        <v>0.009040531419244659</v>
+        <v>0.01202771657756285</v>
       </c>
       <c r="T17">
-        <v>0.009040531419244659</v>
+        <v>0.01202771657756284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H18">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I18">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J18">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>2.051445139500445</v>
+        <v>2.669710745885334</v>
       </c>
       <c r="R18">
-        <v>18.463006255504</v>
+        <v>24.02739671296801</v>
       </c>
       <c r="S18">
-        <v>0.04777810409631189</v>
+        <v>0.04491628275785268</v>
       </c>
       <c r="T18">
-        <v>0.04777810409631189</v>
+        <v>0.04491628275785266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H19">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I19">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J19">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>0.5296103261297779</v>
+        <v>0.1074477826986667</v>
       </c>
       <c r="R19">
-        <v>4.766492935168</v>
+        <v>0.9670300442880001</v>
       </c>
       <c r="S19">
-        <v>0.01233461076052564</v>
+        <v>0.001807744526943935</v>
       </c>
       <c r="T19">
-        <v>0.01233461076052564</v>
+        <v>0.001807744526943935</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H20">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I20">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J20">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>1.155256842523556</v>
+        <v>1.638848143489334</v>
       </c>
       <c r="R20">
-        <v>10.397311582712</v>
+        <v>14.749633291404</v>
       </c>
       <c r="S20">
-        <v>0.02690590190167504</v>
+        <v>0.02757263749400606</v>
       </c>
       <c r="T20">
-        <v>0.02690590190167504</v>
+        <v>0.02757263749400605</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H21">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I21">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J21">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>0.4342131852266667</v>
+        <v>0.1086632312333333</v>
       </c>
       <c r="R21">
-        <v>3.90791866704</v>
+        <v>0.9779690811000001</v>
       </c>
       <c r="S21">
-        <v>0.01011281382294374</v>
+        <v>0.001828193719855507</v>
       </c>
       <c r="T21">
-        <v>0.01011281382294374</v>
+        <v>0.001828193719855507</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H22">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I22">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J22">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N22">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q22">
-        <v>1.185643735002222</v>
+        <v>3.841969850886112</v>
       </c>
       <c r="R22">
-        <v>10.67079361502</v>
+        <v>34.57772865797501</v>
       </c>
       <c r="S22">
-        <v>0.02761361183944248</v>
+        <v>0.0646388394081692</v>
       </c>
       <c r="T22">
-        <v>0.02761361183944248</v>
+        <v>0.06463883940816917</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H23">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I23">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J23">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q23">
-        <v>6.265982292975557</v>
+        <v>14.34744517437845</v>
       </c>
       <c r="R23">
-        <v>56.39384063678001</v>
+        <v>129.127006569406</v>
       </c>
       <c r="S23">
-        <v>0.1459345650999644</v>
+        <v>0.2413871634964195</v>
       </c>
       <c r="T23">
-        <v>0.1459345650999644</v>
+        <v>0.2413871634964194</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H24">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I24">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J24">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N24">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q24">
-        <v>1.617654238862222</v>
+        <v>0.5774412728995556</v>
       </c>
       <c r="R24">
-        <v>14.55888814976</v>
+        <v>5.196971456096</v>
       </c>
       <c r="S24">
-        <v>0.0376751252704814</v>
+        <v>0.009715103229660823</v>
       </c>
       <c r="T24">
-        <v>0.0376751252704814</v>
+        <v>0.009715103229660821</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H25">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I25">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J25">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N25">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q25">
-        <v>3.528643676454445</v>
+        <v>8.807427517788112</v>
       </c>
       <c r="R25">
-        <v>31.75779308809</v>
+        <v>79.26684766009301</v>
       </c>
       <c r="S25">
-        <v>0.08218201971196148</v>
+        <v>0.1481796877687867</v>
       </c>
       <c r="T25">
-        <v>0.08218201971196148</v>
+        <v>0.1481796877687866</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H26">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I26">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J26">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N26">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q26">
-        <v>1.326270967533334</v>
+        <v>0.5839732843694445</v>
       </c>
       <c r="R26">
-        <v>11.9364387078</v>
+        <v>5.255759559325</v>
       </c>
       <c r="S26">
-        <v>0.03088881643803283</v>
+        <v>0.009825000406578306</v>
       </c>
       <c r="T26">
-        <v>0.03088881643803283</v>
+        <v>0.009825000406578304</v>
       </c>
     </row>
   </sheetData>
